--- a/unit_tester/test_files/program/echo.xlsx
+++ b/unit_tester/test_files/program/echo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hady\Desktop\42\minishell\unit_tester\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\unit_tester\test_files\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6390ECA4-A10F-4B8B-AA17-10689E4E2475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45B6D3-5036-4197-83DA-575BC6F759B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="28557" windowHeight="15430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1104,16 +1104,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="41.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.09765625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="11.5" style="3"/>
+    <col min="1" max="1" width="41.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.7">
+    <row r="1" spans="1:2" ht="27.6">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.85">
+    <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.7">
+    <row r="3" spans="1:2" ht="27.6">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1137,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.7">
+    <row r="4" spans="1:2" ht="27.6">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.7">
+    <row r="5" spans="1:2" ht="27.6">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.85">
+    <row r="6" spans="1:2" ht="13.8">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.85">
+    <row r="7" spans="1:2" ht="13.8">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.7">
+    <row r="8" spans="1:2" ht="27.6">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.7">
+    <row r="9" spans="1:2" ht="27.6">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.7">
+    <row r="10" spans="1:2" ht="27.6">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.7">
+    <row r="11" spans="1:2" ht="27.6">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.7">
+    <row r="12" spans="1:2" ht="27.6">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27.7">
+    <row r="13" spans="1:2" ht="27.6">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27.7">
+    <row r="14" spans="1:2" ht="27.6">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27.7">
+    <row r="15" spans="1:2" ht="27.6">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.7">
+    <row r="16" spans="1:2" ht="27.6">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.85">
+    <row r="17" spans="1:2" ht="13.8">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.85">
+    <row r="18" spans="1:2" ht="13.8">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27.7">
+    <row r="19" spans="1:2" ht="27.6">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -1265,7 +1267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="13.85">
+    <row r="20" spans="1:2" ht="13.8">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="13.85">
+    <row r="21" spans="1:2" ht="13.8">
       <c r="A21" s="1" t="s">
         <v>77</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27.7">
+    <row r="22" spans="1:2" ht="27.6">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="13.85">
+    <row r="23" spans="1:2" ht="13.8">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13.85">
+    <row r="24" spans="1:2" ht="13.8">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27.7">
+    <row r="25" spans="1:2" ht="27.6">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13.85">
+    <row r="26" spans="1:2" ht="13.8">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="13.85">
+    <row r="27" spans="1:2" ht="13.8">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="13.85">
+    <row r="28" spans="1:2" ht="13.8">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="27.7">
+    <row r="29" spans="1:2" ht="27.6">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="27.7">
+    <row r="30" spans="1:2" ht="27.6">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="27.7">
+    <row r="31" spans="1:2" ht="27.6">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="27.7">
+    <row r="32" spans="1:2" ht="27.6">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27.7">
+    <row r="33" spans="1:2" ht="27.6">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27.7">
+    <row r="34" spans="1:2" ht="27.6">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27.7">
+    <row r="35" spans="1:2" ht="27.6">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="27.7">
+    <row r="36" spans="1:2" ht="27.6">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27.7">
+    <row r="37" spans="1:2" ht="27.6">
       <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27.7">
+    <row r="38" spans="1:2" ht="27.6">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="27.7">
+    <row r="39" spans="1:2" ht="27.6">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="27.7">
+    <row r="40" spans="1:2" ht="27.6">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27.7">
+    <row r="41" spans="1:2" ht="27.6">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27.7">
+    <row r="42" spans="1:2" ht="27.6">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27.7">
+    <row r="43" spans="1:2" ht="27.6">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27.7">
+    <row r="44" spans="1:2" ht="27.6">
       <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27.7">
+    <row r="45" spans="1:2" ht="27.6">
       <c r="A45" s="1" t="s">
         <v>106</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="27.7">
+    <row r="46" spans="1:2" ht="27.6">
       <c r="A46" s="2" t="s">
         <v>108</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27.7">
+    <row r="47" spans="1:2" ht="27.6">
       <c r="A47" s="2" t="s">
         <v>110</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="27.7">
+    <row r="48" spans="1:2" ht="27.6">
       <c r="A48" s="1" t="s">
         <v>112</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="13.85">
+    <row r="49" spans="1:2" ht="13.8">
       <c r="A49" s="1" t="s">
         <v>113</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="27.7">
+    <row r="50" spans="1:2" ht="41.4">
       <c r="A50" s="1" t="s">
         <v>114</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="27.7">
+    <row r="51" spans="1:2" ht="41.4">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="27.7">
+    <row r="52" spans="1:2" ht="27.6">
       <c r="A52" s="1" t="s">
         <v>116</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="27.7">
+    <row r="53" spans="1:2" ht="27.6">
       <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="41.55">
+    <row r="54" spans="1:2" ht="41.4">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -1545,7 +1547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="41.55">
+    <row r="55" spans="1:2" ht="41.4">
       <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="41.55">
+    <row r="56" spans="1:2" ht="41.4">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="27.7">
+    <row r="57" spans="1:2" ht="41.4">
       <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="27.7">
+    <row r="58" spans="1:2" ht="41.4">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="41.55">
+    <row r="59" spans="1:2" ht="55.2">
       <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
@@ -1585,7 +1587,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="27.7">
+    <row r="60" spans="1:2" ht="27.6">
       <c r="A60" s="1" t="s">
         <v>125</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="27.7">
+    <row r="61" spans="1:2" ht="27.6">
       <c r="A61" s="1" t="s">
         <v>126</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="27.7">
+    <row r="62" spans="1:2" ht="27.6">
       <c r="A62" s="1" t="s">
         <v>128</v>
       </c>
@@ -1609,7 +1611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="27.7">
+    <row r="63" spans="1:2" ht="27.6">
       <c r="A63" s="1" t="s">
         <v>130</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="27.7">
+    <row r="64" spans="1:2" ht="27.6">
       <c r="A64" s="1" t="s">
         <v>132</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="27.7">
+    <row r="65" spans="1:2" ht="27.6">
       <c r="A65" s="1" t="s">
         <v>134</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="55.4">
+    <row r="66" spans="1:2" ht="55.2">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="41.55">
+    <row r="67" spans="1:2" ht="55.2">
       <c r="A67" s="1" t="s">
         <v>112</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="27.7">
+    <row r="68" spans="1:2" ht="27.6">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -1657,7 +1659,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="27.7">
+    <row r="69" spans="1:2" ht="27.6">
       <c r="A69" s="1" t="s">
         <v>138</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="27.7">
+    <row r="70" spans="1:2" ht="27.6">
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="27.7">
+    <row r="71" spans="1:2" ht="27.6">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="27.7">
+    <row r="72" spans="1:2" ht="27.6">
       <c r="A72" s="1" t="s">
         <v>141</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="27.7">
+    <row r="73" spans="1:2" ht="27.6">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
@@ -1697,7 +1699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="27.7">
+    <row r="74" spans="1:2" ht="27.6">
       <c r="A74" s="1" t="s">
         <v>143</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="27.7">
+    <row r="75" spans="1:2" ht="27.6">
       <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="27.7">
+    <row r="76" spans="1:2" ht="27.6">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="27.7">
+    <row r="77" spans="1:2" ht="27.6">
       <c r="A77" s="1" t="s">
         <v>146</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="27.7">
+    <row r="78" spans="1:2" ht="27.6">
       <c r="A78" s="1" t="s">
         <v>147</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="27.7">
+    <row r="79" spans="1:2" ht="27.6">
       <c r="A79" s="1" t="s">
         <v>148</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="27.7">
+    <row r="80" spans="1:2" ht="27.6">
       <c r="A80" s="1" t="s">
         <v>149</v>
       </c>
@@ -1753,7 +1755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="27.7">
+    <row r="81" spans="1:2" ht="27.6">
       <c r="A81" s="1" t="s">
         <v>150</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="27.7">
+    <row r="82" spans="1:2" ht="27.6">
       <c r="A82" s="1" t="s">
         <v>152</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="27.7">
+    <row r="83" spans="1:2" ht="27.6">
       <c r="A83" s="1" t="s">
         <v>153</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="27.7">
+    <row r="84" spans="1:2" ht="27.6">
       <c r="A84" s="1" t="s">
         <v>154</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="27.7">
+    <row r="85" spans="1:2" ht="27.6">
       <c r="A85" s="1" t="s">
         <v>155</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="27.7">
+    <row r="86" spans="1:2" ht="27.6">
       <c r="A86" s="1" t="s">
         <v>156</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="27.7">
+    <row r="87" spans="1:2" ht="27.6">
       <c r="A87" s="1" t="s">
         <v>157</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="27.7">
+    <row r="88" spans="1:2" ht="27.6">
       <c r="A88" s="1" t="s">
         <v>158</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="27.7">
+    <row r="89" spans="1:2" ht="27.6">
       <c r="A89" s="1" t="s">
         <v>159</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="27.7">
+    <row r="90" spans="1:2" ht="27.6">
       <c r="A90" s="1" t="s">
         <v>160</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="27.7">
+    <row r="91" spans="1:2" ht="27.6">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="27.7">
+    <row r="92" spans="1:2" ht="27.6">
       <c r="A92" s="1" t="s">
         <v>162</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="27.7">
+    <row r="93" spans="1:2" ht="27.6">
       <c r="A93" s="1" t="s">
         <v>163</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="27.7">
+    <row r="94" spans="1:2" ht="27.6">
       <c r="A94" s="1" t="s">
         <v>164</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="27.7">
+    <row r="95" spans="1:2" ht="27.6">
       <c r="A95" s="1" t="s">
         <v>165</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="27.7">
+    <row r="96" spans="1:2" ht="27.6">
       <c r="A96" s="1" t="s">
         <v>166</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="27.7">
+    <row r="97" spans="1:2" ht="27.6">
       <c r="A97" s="1" t="s">
         <v>167</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="27.7">
+    <row r="98" spans="1:2" ht="27.6">
       <c r="A98" s="1" t="s">
         <v>168</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="27.7">
+    <row r="99" spans="1:2" ht="27.6">
       <c r="A99" s="1" t="s">
         <v>169</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="27.7">
+    <row r="100" spans="1:2" ht="27.6">
       <c r="A100" s="1" t="s">
         <v>170</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="27.7">
+    <row r="101" spans="1:2" ht="27.6">
       <c r="A101" s="1" t="s">
         <v>171</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="27.7">
+    <row r="102" spans="1:2" ht="27.6">
       <c r="A102" s="1" t="s">
         <v>172</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="27.7">
+    <row r="103" spans="1:2" ht="27.6">
       <c r="A103" s="1" t="s">
         <v>173</v>
       </c>
@@ -1937,7 +1939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="27.7">
+    <row r="104" spans="1:2" ht="27.6">
       <c r="A104" s="1" t="s">
         <v>174</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="27.7">
+    <row r="105" spans="1:2" ht="27.6">
       <c r="A105" s="1" t="s">
         <v>175</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="27.7">
+    <row r="106" spans="1:2" ht="27.6">
       <c r="A106" s="1" t="s">
         <v>176</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="27.7">
+    <row r="107" spans="1:2" ht="27.6">
       <c r="A107" s="1" t="s">
         <v>177</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="27.7">
+    <row r="108" spans="1:2" ht="27.6">
       <c r="A108" s="1" t="s">
         <v>178</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="27.7">
+    <row r="109" spans="1:2" ht="27.6">
       <c r="A109" s="1" t="s">
         <v>179</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="27.7">
+    <row r="110" spans="1:2" ht="27.6">
       <c r="A110" s="1" t="s">
         <v>180</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="27.7">
+    <row r="111" spans="1:2" ht="27.6">
       <c r="A111" s="1" t="s">
         <v>181</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="27.7">
+    <row r="112" spans="1:2" ht="27.6">
       <c r="A112" s="1" t="s">
         <v>179</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="27.7">
+    <row r="113" spans="1:2" ht="27.6">
       <c r="A113" s="1" t="s">
         <v>180</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="27.7">
+    <row r="114" spans="1:2" ht="27.6">
       <c r="A114" s="1" t="s">
         <v>182</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="27.7">
+    <row r="115" spans="1:2" ht="27.6">
       <c r="A115" s="1" t="s">
         <v>183</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="27.7">
+    <row r="116" spans="1:2" ht="41.4">
       <c r="A116" s="1" t="s">
         <v>184</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="27.7">
+    <row r="117" spans="1:2" ht="27.6">
       <c r="A117" s="1" t="s">
         <v>185</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="27.7">
+    <row r="118" spans="1:2" ht="27.6">
       <c r="A118" s="1" t="s">
         <v>186</v>
       </c>
@@ -2057,7 +2059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="27.7">
+    <row r="119" spans="1:2" ht="27.6">
       <c r="A119" s="1" t="s">
         <v>187</v>
       </c>
